--- a/Drive/Logboeken/Logboek Laurens.xlsx
+++ b/Drive/Logboeken/Logboek Laurens.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Laurens Castelijns</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>Vraagstelling in Android studio</t>
+  </si>
+  <si>
+    <t>SQlite</t>
+  </si>
+  <si>
+    <t>gastcollege</t>
+  </si>
+  <si>
+    <t>Studentassistent + bespreking</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
@@ -552,176 +564,247 @@
       <c r="A48" s="4">
         <v>22.0</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="14">
+        <v>42345.0</v>
+      </c>
+      <c r="E48" s="13"/>
     </row>
     <row r="49">
       <c r="A49" s="4">
         <v>22.5</v>
       </c>
+      <c r="E49" s="13"/>
     </row>
     <row r="50">
       <c r="A50" s="4">
         <v>23.0</v>
       </c>
+      <c r="E50" s="13"/>
     </row>
     <row r="51">
       <c r="A51" s="4">
         <v>23.5</v>
       </c>
+      <c r="E51" s="13"/>
     </row>
     <row r="52">
       <c r="A52" s="4">
         <v>24.0</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="14">
+        <v>42346.0</v>
+      </c>
+      <c r="E52" s="15"/>
     </row>
     <row r="53">
       <c r="A53" s="4">
         <v>24.5</v>
       </c>
+      <c r="E53" s="15"/>
     </row>
     <row r="54">
       <c r="A54" s="4">
         <v>25.0</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="14">
+        <v>42347.0</v>
+      </c>
+      <c r="E54" s="13"/>
     </row>
     <row r="55">
       <c r="A55" s="4">
         <v>25.5</v>
       </c>
+      <c r="E55" s="13"/>
     </row>
     <row r="56">
       <c r="A56" s="4">
         <v>26.0</v>
       </c>
+      <c r="E56" s="13"/>
     </row>
     <row r="57">
       <c r="A57" s="4">
         <v>26.5</v>
       </c>
+      <c r="E57" s="13"/>
     </row>
     <row r="58">
       <c r="A58" s="4">
         <v>27.0</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="14">
+        <v>42349.0</v>
+      </c>
+      <c r="E58" s="15"/>
     </row>
     <row r="59">
       <c r="A59" s="4">
         <v>27.5</v>
       </c>
+      <c r="E59" s="15"/>
     </row>
     <row r="60">
       <c r="A60" s="4">
         <v>28.0</v>
       </c>
+      <c r="E60" s="15"/>
     </row>
     <row r="61">
       <c r="A61" s="4">
         <v>28.5</v>
       </c>
+      <c r="E61" s="15"/>
     </row>
     <row r="62">
       <c r="A62" s="4">
         <v>29.0</v>
       </c>
+      <c r="E62" s="15"/>
     </row>
     <row r="63">
       <c r="A63" s="4">
         <v>29.5</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="14">
+        <v>42350.0</v>
+      </c>
+      <c r="E63" s="13"/>
     </row>
     <row r="64">
       <c r="A64" s="4">
         <v>30.0</v>
       </c>
+      <c r="E64" s="13"/>
     </row>
     <row r="65">
       <c r="A65" s="4">
         <v>30.5</v>
       </c>
+      <c r="E65" s="13"/>
     </row>
     <row r="66">
       <c r="A66" s="4">
         <v>31.0</v>
       </c>
+      <c r="E66" s="13"/>
     </row>
     <row r="67">
       <c r="A67" s="4">
         <v>31.5</v>
       </c>
+      <c r="E67" s="13"/>
     </row>
     <row r="68">
       <c r="A68" s="4">
         <v>32.0</v>
       </c>
+      <c r="E68" s="13"/>
     </row>
     <row r="69">
       <c r="A69" s="4">
         <v>32.5</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="14">
+        <v>42351.0</v>
+      </c>
+      <c r="E69" s="15"/>
     </row>
     <row r="70">
       <c r="A70" s="4">
         <v>33.0</v>
       </c>
+      <c r="E70" s="15"/>
     </row>
     <row r="71">
       <c r="A71" s="4">
         <v>33.5</v>
       </c>
+      <c r="E71" s="15"/>
     </row>
     <row r="72">
       <c r="A72" s="4">
         <v>34.0</v>
       </c>
+      <c r="E72" s="15"/>
     </row>
     <row r="73">
       <c r="A73" s="4">
         <v>34.5</v>
       </c>
+      <c r="E73" s="15"/>
     </row>
     <row r="74">
       <c r="A74" s="4">
         <v>35.0</v>
       </c>
+      <c r="E74" s="15"/>
     </row>
     <row r="75">
       <c r="A75" s="4">
         <v>35.5</v>
       </c>
+      <c r="E75" s="15"/>
     </row>
     <row r="76">
       <c r="A76" s="4">
         <v>36.0</v>
       </c>
+      <c r="E76" s="15"/>
     </row>
     <row r="77">
       <c r="A77" s="4">
         <v>36.5</v>
       </c>
+      <c r="E77" s="15"/>
     </row>
     <row r="78">
       <c r="A78" s="4">
         <v>37.0</v>
       </c>
+      <c r="E78" s="15"/>
     </row>
     <row r="79">
       <c r="A79" s="4">
         <v>37.5</v>
       </c>
+      <c r="E79" s="15"/>
     </row>
     <row r="80">
       <c r="A80" s="4">
         <v>38.0</v>
       </c>
+      <c r="E80" s="15"/>
     </row>
     <row r="81">
       <c r="A81" s="4">
         <v>38.5</v>
       </c>
+      <c r="E81" s="15"/>
     </row>
     <row r="82">
       <c r="A82" s="4">
         <v>39.0</v>
       </c>
+      <c r="E82" s="15"/>
     </row>
     <row r="83">
       <c r="A83" s="4">

--- a/Drive/Logboeken/Logboek Laurens.xlsx
+++ b/Drive/Logboeken/Logboek Laurens.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Laurens Castelijns</t>
   </si>
@@ -40,7 +40,7 @@
     <t>werkcollege</t>
   </si>
   <si>
-    <t>Gesprek en  bespreking</t>
+    <t xml:space="preserve">Gesprek en </t>
   </si>
   <si>
     <t>Android Studio leren kennen</t>
@@ -68,13 +68,58 @@
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>Sqlite</t>
+  </si>
+  <si>
+    <t>Vragen genereren proberen</t>
+  </si>
+  <si>
+    <t>Database + skype</t>
+  </si>
+  <si>
+    <t>Skype + Database</t>
+  </si>
+  <si>
+    <t>Skype GetTopoData fix+randomness</t>
+  </si>
+  <si>
+    <t>vragen genereren</t>
+  </si>
+  <si>
+    <t>skype vergadering</t>
+  </si>
+  <si>
+    <t>skype + programmeren</t>
+  </si>
+  <si>
+    <t>Gastcollege</t>
+  </si>
+  <si>
+    <t>programmeren</t>
+  </si>
+  <si>
+    <t>1-15-2016</t>
+  </si>
+  <si>
+    <t>programmeren (Systeem werkend krijgen)</t>
+  </si>
+  <si>
+    <t>1-17-2015</t>
+  </si>
+  <si>
+    <t>skype</t>
+  </si>
+  <si>
+    <t>bugs hunten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -83,6 +128,9 @@
     <font/>
     <font>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -119,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -162,8 +210,14 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -172,11 +226,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -384,836 +438,1429 @@
       <c r="A24" s="4">
         <v>10.0</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="14">
+      <c r="C24" s="2"/>
+      <c r="D24" s="17">
         <v>42329.0</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>10.5</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26">
       <c r="A26" s="4">
         <v>11.0</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>11.5</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>12.0</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>12.5</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>13.0</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="14">
+      <c r="C30" s="8"/>
+      <c r="D30" s="17">
         <v>42331.0</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="4">
         <v>13.5</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="4">
         <v>14.0</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="4">
         <v>14.5</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="4">
         <v>15.0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="14">
+      <c r="C34" s="8"/>
+      <c r="D34" s="17">
         <v>42332.0</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35">
       <c r="A35" s="4">
         <v>15.5</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36">
       <c r="A36" s="4">
         <v>16.0</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37">
       <c r="A37" s="4">
         <v>16.5</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="14">
+      <c r="C37" s="8"/>
+      <c r="D37" s="17">
         <v>42333.0</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38">
       <c r="A38" s="4">
         <v>17.0</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39">
       <c r="A39" s="4">
         <v>17.5</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="14">
+      <c r="C39" s="8"/>
+      <c r="D39" s="17">
         <v>42337.0</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40">
       <c r="A40" s="4">
         <v>18.0</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41">
       <c r="A41" s="4">
         <v>18.5</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42">
       <c r="A42" s="4">
         <v>19.0</v>
       </c>
-      <c r="E42" s="13"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43">
       <c r="A43" s="4">
         <v>19.5</v>
       </c>
-      <c r="E43" s="13"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44">
       <c r="A44" s="4">
         <v>20.0</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="14">
+      <c r="C44" s="8"/>
+      <c r="D44" s="17">
         <v>42338.0</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45">
       <c r="A45" s="4">
         <v>20.5</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46">
       <c r="A46" s="4">
         <v>21.0</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47">
       <c r="A47" s="4">
         <v>21.5</v>
       </c>
-      <c r="E47" s="15"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48">
       <c r="A48" s="4">
         <v>22.0</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="14">
+      <c r="C48" s="8"/>
+      <c r="D48" s="17">
         <v>42345.0</v>
       </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49">
       <c r="A49" s="4">
         <v>22.5</v>
       </c>
-      <c r="E49" s="13"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50">
       <c r="A50" s="4">
         <v>23.0</v>
       </c>
-      <c r="E50" s="13"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51">
       <c r="A51" s="4">
         <v>23.5</v>
       </c>
-      <c r="E51" s="13"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52">
       <c r="A52" s="4">
         <v>24.0</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="14">
+      <c r="C52" s="8"/>
+      <c r="D52" s="17">
         <v>42346.0</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53">
       <c r="A53" s="4">
         <v>24.5</v>
       </c>
-      <c r="E53" s="15"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54">
       <c r="A54" s="4">
         <v>25.0</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="14">
+      <c r="C54" s="8"/>
+      <c r="D54" s="17">
         <v>42347.0</v>
       </c>
-      <c r="E54" s="13"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55">
       <c r="A55" s="4">
         <v>25.5</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56">
       <c r="A56" s="4">
         <v>26.0</v>
       </c>
-      <c r="E56" s="13"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57">
       <c r="A57" s="4">
         <v>26.5</v>
       </c>
-      <c r="E57" s="13"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58">
       <c r="A58" s="4">
         <v>27.0</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="14">
+      <c r="C58" s="8"/>
+      <c r="D58" s="17">
         <v>42349.0</v>
       </c>
-      <c r="E58" s="15"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59">
       <c r="A59" s="4">
         <v>27.5</v>
       </c>
-      <c r="E59" s="15"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60">
       <c r="A60" s="4">
         <v>28.0</v>
       </c>
-      <c r="E60" s="15"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61">
       <c r="A61" s="4">
         <v>28.5</v>
       </c>
-      <c r="E61" s="15"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="4">
         <v>29.0</v>
       </c>
-      <c r="E62" s="15"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63">
       <c r="A63" s="4">
         <v>29.5</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="14">
+      <c r="C63" s="8"/>
+      <c r="D63" s="17">
         <v>42350.0</v>
       </c>
-      <c r="E63" s="13"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64">
       <c r="A64" s="4">
         <v>30.0</v>
       </c>
-      <c r="E64" s="13"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65">
       <c r="A65" s="4">
         <v>30.5</v>
       </c>
-      <c r="E65" s="13"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66">
       <c r="A66" s="4">
         <v>31.0</v>
       </c>
-      <c r="E66" s="13"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67">
       <c r="A67" s="4">
         <v>31.5</v>
       </c>
-      <c r="E67" s="13"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68">
       <c r="A68" s="4">
         <v>32.0</v>
       </c>
-      <c r="E68" s="13"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69">
       <c r="A69" s="4">
         <v>32.5</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="14">
+      <c r="C69" s="8"/>
+      <c r="D69" s="17">
         <v>42351.0</v>
       </c>
-      <c r="E69" s="15"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70">
       <c r="A70" s="4">
         <v>33.0</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71">
       <c r="A71" s="4">
         <v>33.5</v>
       </c>
-      <c r="E71" s="15"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72">
       <c r="A72" s="4">
         <v>34.0</v>
       </c>
-      <c r="E72" s="15"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73">
       <c r="A73" s="4">
         <v>34.5</v>
       </c>
-      <c r="E73" s="15"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74">
       <c r="A74" s="4">
         <v>35.0</v>
       </c>
-      <c r="E74" s="15"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75">
       <c r="A75" s="4">
         <v>35.5</v>
       </c>
-      <c r="E75" s="15"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76">
       <c r="A76" s="4">
         <v>36.0</v>
       </c>
-      <c r="E76" s="15"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77">
       <c r="A77" s="4">
         <v>36.5</v>
       </c>
-      <c r="E77" s="15"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78">
       <c r="A78" s="4">
         <v>37.0</v>
       </c>
-      <c r="E78" s="15"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79">
       <c r="A79" s="4">
         <v>37.5</v>
       </c>
-      <c r="E79" s="15"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80">
       <c r="A80" s="4">
         <v>38.0</v>
       </c>
-      <c r="E80" s="15"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81">
       <c r="A81" s="4">
         <v>38.5</v>
       </c>
-      <c r="E81" s="15"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82">
       <c r="A82" s="4">
         <v>39.0</v>
       </c>
-      <c r="E82" s="15"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83">
       <c r="A83" s="4">
         <v>39.5</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="14">
+        <v>42357.0</v>
+      </c>
+      <c r="E83" s="13"/>
     </row>
     <row r="84">
       <c r="A84" s="4">
         <v>40.0</v>
       </c>
+      <c r="E84" s="13"/>
     </row>
     <row r="85">
       <c r="A85" s="4">
         <v>40.5</v>
       </c>
+      <c r="E85" s="13"/>
     </row>
     <row r="86">
       <c r="A86" s="4">
         <v>41.0</v>
       </c>
+      <c r="E86" s="13"/>
     </row>
     <row r="87">
       <c r="A87" s="4">
         <v>41.5</v>
       </c>
+      <c r="E87" s="13"/>
     </row>
     <row r="88">
       <c r="A88" s="4">
         <v>42.0</v>
       </c>
+      <c r="E88" s="13"/>
     </row>
     <row r="89">
       <c r="A89" s="4">
         <v>42.5</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="14">
+        <v>42358.0</v>
+      </c>
+      <c r="E89" s="15"/>
     </row>
     <row r="90">
       <c r="A90" s="4">
         <v>43.0</v>
       </c>
+      <c r="E90" s="15"/>
     </row>
     <row r="91">
       <c r="A91" s="4">
         <v>43.5</v>
       </c>
+      <c r="E91" s="15"/>
     </row>
     <row r="92">
       <c r="A92" s="4">
         <v>44.0</v>
       </c>
+      <c r="E92" s="15"/>
     </row>
     <row r="93">
       <c r="A93" s="4">
         <v>44.5</v>
       </c>
+      <c r="E93" s="15"/>
     </row>
     <row r="94">
       <c r="A94" s="4">
         <v>45.0</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="13"/>
     </row>
     <row r="95">
       <c r="A95" s="4">
         <v>45.5</v>
       </c>
+      <c r="E95" s="13"/>
     </row>
     <row r="96">
       <c r="A96" s="4">
         <v>46.0</v>
       </c>
+      <c r="E96" s="13"/>
     </row>
     <row r="97">
       <c r="A97" s="4">
         <v>46.5</v>
       </c>
+      <c r="E97" s="13"/>
     </row>
     <row r="98">
       <c r="A98" s="4">
         <v>47.0</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="14">
+        <v>42360.0</v>
+      </c>
+      <c r="E98" s="15"/>
     </row>
     <row r="99">
       <c r="A99" s="4">
         <v>47.5</v>
       </c>
+      <c r="E99" s="18"/>
     </row>
     <row r="100">
       <c r="A100" s="4">
         <v>48.0</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="14">
+        <v>42366.0</v>
+      </c>
+      <c r="E100" s="13"/>
     </row>
     <row r="101">
       <c r="A101" s="4">
         <v>48.5</v>
       </c>
+      <c r="E101" s="13"/>
     </row>
     <row r="102">
       <c r="A102" s="4">
         <v>49.0</v>
       </c>
+      <c r="E102" s="13"/>
     </row>
     <row r="103">
       <c r="A103" s="4">
         <v>49.5</v>
       </c>
+      <c r="E103" s="13"/>
     </row>
     <row r="104">
       <c r="A104" s="4">
         <v>50.0</v>
       </c>
+      <c r="E104" s="13"/>
     </row>
     <row r="105">
       <c r="A105" s="4">
         <v>50.5</v>
       </c>
+      <c r="E105" s="13"/>
     </row>
     <row r="106">
       <c r="A106" s="4">
         <v>51.0</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="14">
+        <v>42369.0</v>
+      </c>
+      <c r="E106" s="15"/>
     </row>
     <row r="107">
       <c r="A107" s="4">
         <v>51.5</v>
       </c>
+      <c r="E107" s="15"/>
     </row>
     <row r="108">
       <c r="A108" s="4">
         <v>52.0</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="14">
+        <v>42371.0</v>
+      </c>
+      <c r="E108" s="13"/>
     </row>
     <row r="109">
       <c r="A109" s="4">
         <v>52.5</v>
       </c>
+      <c r="E109" s="13"/>
     </row>
     <row r="110">
       <c r="A110" s="4">
         <v>53.0</v>
       </c>
+      <c r="E110" s="13"/>
     </row>
     <row r="111">
       <c r="A111" s="4">
         <v>53.5</v>
       </c>
+      <c r="E111" s="13"/>
     </row>
     <row r="112">
       <c r="A112" s="4">
         <v>54.0</v>
       </c>
+      <c r="E112" s="13"/>
     </row>
     <row r="113">
       <c r="A113" s="4">
         <v>54.5</v>
       </c>
+      <c r="E113" s="13"/>
     </row>
     <row r="114">
       <c r="A114" s="4">
         <v>55.0</v>
       </c>
+      <c r="E114" s="13"/>
     </row>
     <row r="115">
       <c r="A115" s="4">
         <v>55.5</v>
       </c>
+      <c r="E115" s="13"/>
     </row>
     <row r="116">
       <c r="A116" s="4">
         <v>56.0</v>
       </c>
+      <c r="E116" s="13"/>
     </row>
     <row r="117">
       <c r="A117" s="4">
         <v>56.5</v>
       </c>
+      <c r="E117" s="13"/>
     </row>
     <row r="118">
       <c r="A118" s="4">
         <v>57.0</v>
       </c>
+      <c r="E118" s="13"/>
     </row>
     <row r="119">
       <c r="A119" s="4">
         <v>57.5</v>
       </c>
+      <c r="E119" s="13"/>
     </row>
     <row r="120">
       <c r="A120" s="4">
         <v>58.0</v>
       </c>
+      <c r="E120" s="13"/>
     </row>
     <row r="121">
       <c r="A121" s="4">
         <v>58.5</v>
       </c>
+      <c r="E121" s="13"/>
     </row>
     <row r="122">
       <c r="A122" s="4">
         <v>59.0</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="14">
+        <v>42373.0</v>
+      </c>
+      <c r="E122" s="15"/>
     </row>
     <row r="123">
       <c r="A123" s="4">
         <v>59.5</v>
       </c>
+      <c r="E123" s="15"/>
     </row>
     <row r="124">
       <c r="A124" s="4">
         <v>60.0</v>
       </c>
+      <c r="B124" s="1"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="19"/>
     </row>
     <row r="125">
       <c r="A125" s="4">
         <v>60.5</v>
       </c>
+      <c r="E125" s="19"/>
     </row>
     <row r="126">
       <c r="A126" s="4">
         <v>61.0</v>
       </c>
+      <c r="E126" s="19"/>
     </row>
     <row r="127">
       <c r="A127" s="4">
         <v>61.5</v>
       </c>
+      <c r="E127" s="19"/>
     </row>
     <row r="128">
       <c r="A128" s="4">
         <v>62.0</v>
       </c>
+      <c r="E128" s="19"/>
     </row>
     <row r="129">
       <c r="A129" s="4">
         <v>62.5</v>
       </c>
+      <c r="E129" s="19"/>
     </row>
     <row r="130">
       <c r="A130" s="4">
         <v>63.0</v>
       </c>
+      <c r="E130" s="15"/>
     </row>
     <row r="131">
       <c r="A131" s="4">
         <v>63.5</v>
       </c>
+      <c r="E131" s="15"/>
     </row>
     <row r="132">
       <c r="A132" s="4">
         <v>64.0</v>
       </c>
+      <c r="E132" s="15"/>
     </row>
     <row r="133">
       <c r="A133" s="4">
         <v>64.5</v>
       </c>
+      <c r="E133" s="15"/>
     </row>
     <row r="134">
       <c r="A134" s="4">
         <v>65.0</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="14">
+        <v>42374.0</v>
+      </c>
+      <c r="E134" s="13"/>
     </row>
     <row r="135">
       <c r="A135" s="4">
         <v>65.5</v>
       </c>
+      <c r="E135" s="13"/>
     </row>
     <row r="136">
       <c r="A136" s="4">
         <v>66.0</v>
       </c>
+      <c r="E136" s="13"/>
     </row>
     <row r="137">
       <c r="A137" s="4">
         <v>66.5</v>
       </c>
+      <c r="E137" s="13"/>
     </row>
     <row r="138">
       <c r="A138" s="4">
         <v>67.0</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="14">
+        <v>42376.0</v>
+      </c>
+      <c r="E138" s="15"/>
     </row>
     <row r="139">
       <c r="A139" s="4">
         <v>67.5</v>
       </c>
+      <c r="E139" s="15"/>
     </row>
     <row r="140">
       <c r="A140" s="4">
         <v>68.0</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="14">
+        <v>42377.0</v>
+      </c>
+      <c r="E140" s="13"/>
     </row>
     <row r="141">
       <c r="A141" s="4">
         <v>68.5</v>
       </c>
+      <c r="E141" s="13"/>
     </row>
     <row r="142">
       <c r="A142" s="4">
         <v>69.0</v>
       </c>
+      <c r="E142" s="13"/>
     </row>
     <row r="143">
       <c r="A143" s="4">
         <v>69.5</v>
       </c>
+      <c r="E143" s="13"/>
     </row>
     <row r="144">
       <c r="A144" s="4">
         <v>70.0</v>
       </c>
+      <c r="E144" s="13"/>
     </row>
     <row r="145">
       <c r="A145" s="4">
         <v>70.5</v>
       </c>
+      <c r="E145" s="13"/>
     </row>
     <row r="146">
       <c r="A146" s="4">
         <v>71.0</v>
       </c>
+      <c r="E146" s="13"/>
     </row>
     <row r="147">
       <c r="A147" s="4">
         <v>71.5</v>
       </c>
+      <c r="E147" s="13"/>
     </row>
     <row r="148">
       <c r="A148" s="4">
         <v>72.0</v>
       </c>
+      <c r="B148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="14">
+        <v>42378.0</v>
+      </c>
+      <c r="E148" s="15"/>
     </row>
     <row r="149">
       <c r="A149" s="4">
         <v>72.5</v>
       </c>
+      <c r="E149" s="15"/>
     </row>
     <row r="150">
       <c r="A150" s="4">
         <v>73.0</v>
       </c>
+      <c r="E150" s="15"/>
     </row>
     <row r="151">
       <c r="A151" s="4">
         <v>73.5</v>
       </c>
+      <c r="E151" s="15"/>
     </row>
     <row r="152">
       <c r="A152" s="4">
         <v>74.0</v>
       </c>
+      <c r="E152" s="15"/>
     </row>
     <row r="153">
       <c r="A153" s="4">
         <v>74.5</v>
       </c>
+      <c r="E153" s="15"/>
     </row>
     <row r="154">
       <c r="A154" s="4">
         <v>75.0</v>
       </c>
+      <c r="E154" s="15"/>
     </row>
     <row r="155">
       <c r="A155" s="4">
         <v>75.5</v>
       </c>
+      <c r="E155" s="15"/>
     </row>
     <row r="156">
       <c r="A156" s="4">
         <v>76.0</v>
       </c>
+      <c r="E156" s="15"/>
     </row>
     <row r="157">
       <c r="A157" s="4">
         <v>76.5</v>
       </c>
+      <c r="E157" s="15"/>
     </row>
     <row r="158">
       <c r="A158" s="4">
         <v>77.0</v>
       </c>
+      <c r="E158" s="15"/>
     </row>
     <row r="159">
       <c r="A159" s="4">
         <v>77.5</v>
       </c>
+      <c r="E159" s="15"/>
     </row>
     <row r="160">
       <c r="A160" s="4">
         <v>78.0</v>
       </c>
+      <c r="E160" s="15"/>
     </row>
     <row r="161">
       <c r="A161" s="4">
         <v>78.5</v>
       </c>
+      <c r="E161" s="15"/>
     </row>
     <row r="162">
       <c r="A162" s="4">
         <v>79.0</v>
       </c>
+      <c r="E162" s="15"/>
     </row>
     <row r="163">
       <c r="A163" s="4">
         <v>79.5</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="14">
+        <v>42379.0</v>
+      </c>
+      <c r="E163" s="13"/>
     </row>
     <row r="164">
       <c r="A164" s="4">
         <v>80.0</v>
+      </c>
+      <c r="E164" s="13"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="E165" s="13"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="14">
+        <v>42380.0</v>
+      </c>
+      <c r="E166" s="13"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>81.5</v>
+      </c>
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="E169" s="13"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="E170" s="13"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="14">
+        <v>42382.0</v>
+      </c>
+      <c r="E171" s="15"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="E172" s="15"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" s="13"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="E174" s="13"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="E175" s="13"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="E176" s="13"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="E177" s="13"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="E178" s="13"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="E179" s="13"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="E180" s="13"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E181" s="15"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="E182" s="15"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="E183" s="15"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="E184" s="15"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="E185" s="15"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="E186" s="15"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="E187" s="15"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="E188" s="15"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="E189" s="15"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="E190" s="15"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1">
+        <v>93.5</v>
+      </c>
+      <c r="E191" s="15"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="E192" s="15"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="E193" s="15"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="E194" s="15"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>95.5</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" s="14">
+        <v>42387.0</v>
+      </c>
+      <c r="E195" s="15"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="E196" s="15"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" s="14">
+        <v>42388.0</v>
+      </c>
+      <c r="E197" s="13"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="E198" s="13"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="E199" s="13"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="E200" s="13"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>98.5</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D201" s="14">
+        <v>42390.0</v>
+      </c>
+      <c r="E201" s="15"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="E202" s="15"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
